--- a/OCA_PracticeTests.xlsx
+++ b/OCA_PracticeTests.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="9">
   <si>
     <t>Question number \ Chapter</t>
   </si>
@@ -41,12 +41,15 @@
   <si>
     <t>CD</t>
   </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,8 +57,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,12 +79,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFED1C24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -163,11 +184,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -179,18 +215,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J17"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,116 +1230,404 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1316,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,8 +1707,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>1</v>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>2</v>
@@ -1391,7 +1731,7 @@
       <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="10"/>
@@ -1399,7 +1739,7 @@
       <c r="N2">
         <v>65</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="11">
         <f>(N2 * 100 / 72)</f>
         <v>90.277777777777771</v>
       </c>
@@ -1408,28 +1748,28 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -1443,31 +1783,31 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="10"/>
@@ -1478,28 +1818,28 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="16" t="s">
@@ -1513,31 +1853,31 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="10"/>
@@ -1548,28 +1888,28 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="16" t="s">
@@ -1583,31 +1923,31 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="10"/>
@@ -1618,31 +1958,31 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="B9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="K9" s="10"/>
@@ -1653,7 +1993,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1662,7 +2002,7 @@
       <c r="D10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -1677,7 +2017,7 @@
       <c r="I10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="10"/>
@@ -1686,7 +2026,7 @@
       <c r="N10">
         <v>58</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="11">
         <f>(N10 * 100 / 72)</f>
         <v>80.555555555555557</v>
       </c>
@@ -1695,28 +2035,28 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="16" t="s">
@@ -1730,28 +2070,28 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="B12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="16" t="s">
@@ -1764,31 +2104,31 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="20" t="s">
+      <c r="B13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="10"/>
@@ -1798,28 +2138,28 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="B14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="16" t="s">
@@ -1832,28 +2172,28 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="B15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="16" t="s">
@@ -1866,28 +2206,28 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="B16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="16" t="s">
@@ -1900,31 +2240,31 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="F17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="K17" s="10"/>
@@ -1934,21 +2274,39 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
       <c r="N18">
         <v>65</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="11">
         <f>(N18 * 100 / 72)</f>
         <v>90.277777777777771</v>
       </c>
@@ -1957,118 +2315,260 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="21"/>
+      <c r="B19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="B20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="B21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="B22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="B23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="B24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
+      <c r="B25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="N26">
         <v>65</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="11">
         <f>(N26 * 100 / 72)</f>
         <v>90.277777777777771</v>
       </c>
@@ -2077,236 +2577,526 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="B27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="B28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="B29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
+      <c r="B30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
+      <c r="B31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
+      <c r="B32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
+      <c r="B33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="3"/>
+      <c r="B34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
       <c r="N34">
-        <v>65</v>
-      </c>
-      <c r="O34" s="14">
+        <v>56</v>
+      </c>
+      <c r="O34" s="11">
         <f>(N34 * 100 / 72)</f>
-        <v>90.277777777777771</v>
+        <v>77.777777777777771</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
+      <c r="B35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="B36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="B37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
+      <c r="B38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
+      <c r="B39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
+      <c r="B40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
+      <c r="B41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
       <c r="N42">
         <v>65</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="11">
         <f>(N42 * 100 / 88)</f>
         <v>73.86363636363636</v>
       </c>
@@ -2315,127 +3105,131 @@
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="6"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="6"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="6"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="36"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="6"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="36"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="6"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="36"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="9"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
